--- a/抖音/抖音奢美店/抖音奢美排班表.xlsx
+++ b/抖音/抖音奢美店/抖音奢美排班表.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\wulingPY\主播投流\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\wulingPY\主播投流\抖音\抖音奢美店\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2D046D-8C7D-4D80-9D24-DAFF417E470F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2EC506C-C5F2-40E3-B194-4C6C11996A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="47">
   <si>
     <t>候萍（14:30-18:30）</t>
   </si>
@@ -85,6 +86,94 @@
   </si>
   <si>
     <t>Date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵心雨(14:30-18:30)</t>
+  </si>
+  <si>
+    <t>黎苹(19:00-23:00)</t>
+  </si>
+  <si>
+    <t>黎苹(10:00-14:00)</t>
+  </si>
+  <si>
+    <t>赵心雨(19:00-23:00)</t>
+  </si>
+  <si>
+    <t>陈伯晅(10:00-14:00)</t>
+  </si>
+  <si>
+    <t>赵心雨(10:00-14:00)</t>
+  </si>
+  <si>
+    <t>候萍(19:00-23:00)</t>
+  </si>
+  <si>
+    <t>黎苹(14:30-18:30)</t>
+  </si>
+  <si>
+    <t>吴异(14:30-18:30)</t>
+  </si>
+  <si>
+    <t>开会(15:00-16:00)</t>
+  </si>
+  <si>
+    <t>候萍(14:30-18:30)</t>
+  </si>
+  <si>
+    <t>陈伯晅(14:30-18:30)</t>
+  </si>
+  <si>
+    <t>开会（15:00-16:00）</t>
+  </si>
+  <si>
+    <t>陈伯晅+赵心雨(19:00-23:00)</t>
+  </si>
+  <si>
+    <t>吴异+赵心雨(20:00-24:00) 
+白家庄小直播间</t>
+  </si>
+  <si>
+    <t>13:00 开组会</t>
+  </si>
+  <si>
+    <t>开会
+(15:00-16:00）</t>
+  </si>
+  <si>
+    <t>赵心雨 (14:30-18:30)</t>
+  </si>
+  <si>
+    <t>赵心雨 (19:00-23:00)</t>
+  </si>
+  <si>
+    <t>候萍 (14:30-18:30)</t>
+  </si>
+  <si>
+    <t>候萍 (19:00-23:00)</t>
+  </si>
+  <si>
+    <t>候萍+赵心雨(10:00-14:00)</t>
+  </si>
+  <si>
+    <t>赵心雨(10:00-14:00）</t>
+  </si>
+  <si>
+    <t>开会(15:00-16:00）</t>
+  </si>
+  <si>
+    <t>候萍（11:00-14:00）</t>
+  </si>
+  <si>
+    <t>陈伯晅（14:30-18:00）</t>
+  </si>
+  <si>
+    <t>黎苹(19:00-23:00)
+赵心雨(19:00-23:00）</t>
+  </si>
+  <si>
+    <t>赵心雨(19:00-23:00）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -92,7 +181,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,8 +219,33 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F2329"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -150,8 +264,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF57AC0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF54A45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -204,11 +330,206 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFDEE0E3"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFDEE0E3"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFDEE0E3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFDEE0E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFDEE0E3"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF1F2329"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFDEE0E3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFDEE0E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFDEE0E3"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFDEE0E3"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFDEE0E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFDEE0E3"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF1F2329"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFDEE0E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFDEE0E3"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFDEE0E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFDEE0E3"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFDEE0E3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFDEE0E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFDEE0E3"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFDEE0E3"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF1F2329"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFDEE0E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF1F2329"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFDEE0E3"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF1F2329"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFDEE0E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFDEE0E3"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFDEE0E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF1F2329"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFDEE0E3"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFDEE0E3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFDEE0E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFDEE0E3"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFDEE0E3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFDEE0E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF1F2329"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFDEE0E3"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFDEE0E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFDEE0E3"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF1F2329"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF1F2329"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFDEE0E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -228,8 +549,134 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -510,23 +957,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6051FEFF-B32A-4AFA-AD24-5D3550ED37E4}">
+  <dimension ref="A1:D142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A32"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.58203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -540,290 +990,2864 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="A2" s="7">
+        <v>45607</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>45608</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>45609</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>45610</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>45611</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>45612</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>45613</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="17"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
+        <v>45614</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
+        <v>45615</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <v>45616</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="21"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
+        <v>45617</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
+        <v>45618</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
+        <v>45619</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
+        <v>45620</v>
+      </c>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="9">
+        <v>45621</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
+        <v>45622</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="10">
+        <v>45623</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="10">
+        <v>45624</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="10">
+        <v>45625</v>
+      </c>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="10">
+        <v>45626</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="10">
+        <v>45627</v>
+      </c>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="11">
+        <v>45628</v>
+      </c>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="12">
+        <v>45629</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="20"/>
+      <c r="D24" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="12">
+        <v>45630</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="21"/>
+    </row>
+    <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="12">
+        <v>45631</v>
+      </c>
+      <c r="B26" s="24"/>
+      <c r="C26" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="12">
+        <v>45632</v>
+      </c>
+      <c r="B27" s="24"/>
+      <c r="C27" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="12">
+        <v>45633</v>
+      </c>
+      <c r="B28" s="24"/>
+      <c r="C28" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="12">
+        <v>45634</v>
+      </c>
+      <c r="B29" s="24"/>
+      <c r="C29" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="9">
+        <v>45635</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="15"/>
+    </row>
+    <row r="31" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="10">
+        <v>45636</v>
+      </c>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="10">
+        <v>45637</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="10">
+        <v>45638</v>
+      </c>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="10">
+        <v>45639</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="10">
+        <v>45640</v>
+      </c>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="10">
+        <v>45641</v>
+      </c>
+      <c r="B36" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="49" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A37" s="9">
+        <v>45642</v>
+      </c>
+      <c r="B37" s="27"/>
+      <c r="C37" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A38" s="10">
+        <v>45643</v>
+      </c>
+      <c r="B38" s="30"/>
+      <c r="C38" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A39" s="10">
+        <v>45644</v>
+      </c>
+      <c r="B39" s="32"/>
+      <c r="C39" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="33"/>
+    </row>
+    <row r="40" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="25">
+        <v>45645</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="24"/>
+      <c r="D40" s="31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A41" s="10">
+        <v>45646</v>
+      </c>
+      <c r="B41" s="30"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A42" s="10">
+        <v>45647</v>
+      </c>
+      <c r="B42" s="30"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="31"/>
+    </row>
+    <row r="43" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A43" s="10">
+        <v>45648</v>
+      </c>
+      <c r="B43" s="30"/>
+      <c r="C43" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="31"/>
+    </row>
+    <row r="44" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A44" s="26">
+        <v>45649</v>
+      </c>
+      <c r="B44" s="35"/>
+      <c r="C44" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="14"/>
+    </row>
+    <row r="45" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A45" s="10">
+        <v>45650</v>
+      </c>
+      <c r="B45" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="37"/>
+      <c r="D45" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A46" s="10">
+        <v>45651</v>
+      </c>
+      <c r="B46" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" s="16"/>
+    </row>
+    <row r="47" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A47" s="10">
+        <v>45652</v>
+      </c>
+      <c r="B47" s="36"/>
+      <c r="C47" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A48" s="10">
+        <v>45653</v>
+      </c>
+      <c r="B48" s="36"/>
+      <c r="C48" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" s="16"/>
+    </row>
+    <row r="49" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A49" s="10">
+        <v>45654</v>
+      </c>
+      <c r="B49" s="36"/>
+      <c r="C49" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="16"/>
+    </row>
+    <row r="50" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A50" s="10">
+        <v>45655</v>
+      </c>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+    </row>
+    <row r="51" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A51" s="26">
+        <v>45656</v>
+      </c>
+      <c r="B51" s="28"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="38"/>
+    </row>
+    <row r="52" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A52" s="10">
+        <v>45657</v>
+      </c>
+      <c r="B52" s="34"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="39"/>
+    </row>
+    <row r="53" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A53" s="10">
+        <v>45658</v>
+      </c>
+      <c r="B53" s="24"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="38"/>
+    </row>
+    <row r="54" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A54" s="10">
+        <v>45659</v>
+      </c>
+      <c r="B54" s="24"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="38"/>
+    </row>
+    <row r="55" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A55" s="10">
+        <v>45660</v>
+      </c>
+      <c r="B55" s="24"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="38"/>
+    </row>
+    <row r="56" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A56" s="10">
+        <v>45661</v>
+      </c>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="38"/>
+    </row>
+    <row r="57" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A57" s="10">
+        <v>45662</v>
+      </c>
+      <c r="B57" s="24"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="38"/>
+    </row>
+    <row r="58" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A58" s="26">
+        <v>45297</v>
+      </c>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="15"/>
+    </row>
+    <row r="59" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A59" s="10">
+        <v>45298</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" s="16"/>
+      <c r="D59" s="17"/>
+    </row>
+    <row r="60" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A60" s="10">
+        <v>45299</v>
+      </c>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D60" s="17"/>
+    </row>
+    <row r="61" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A61" s="10">
+        <v>45300</v>
+      </c>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D61" s="17"/>
+    </row>
+    <row r="62" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A62" s="10">
+        <v>45301</v>
+      </c>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D62" s="17"/>
+    </row>
+    <row r="63" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A63" s="10">
+        <v>45302</v>
+      </c>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A64" s="10">
+        <v>45303</v>
+      </c>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D64" s="17"/>
+    </row>
+    <row r="65" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A65" s="26">
+        <v>45304</v>
+      </c>
+      <c r="B65" s="28"/>
+      <c r="C65" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D65" s="41"/>
+    </row>
+    <row r="66" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A66" s="10">
+        <v>45305</v>
+      </c>
+      <c r="B66" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C66" s="24"/>
+      <c r="D66" s="38"/>
+    </row>
+    <row r="67" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A67" s="10">
+        <v>45306</v>
+      </c>
+      <c r="B67" s="24"/>
+      <c r="C67" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" s="38"/>
+    </row>
+    <row r="68" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A68" s="10">
+        <v>45307</v>
+      </c>
+      <c r="B68" s="24"/>
+      <c r="C68" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D68" s="38"/>
+    </row>
+    <row r="69" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A69" s="10">
+        <v>45308</v>
+      </c>
+      <c r="B69" s="24"/>
+      <c r="C69" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D69" s="38"/>
+    </row>
+    <row r="70" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A70" s="10">
+        <v>45309</v>
+      </c>
+      <c r="B70" s="24"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A71" s="12">
+        <v>45310</v>
+      </c>
+      <c r="B71" s="24"/>
+      <c r="C71" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D71" s="38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A72" s="9">
+        <v>45311</v>
+      </c>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A73" s="10">
+        <v>45312</v>
+      </c>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="17"/>
+    </row>
+    <row r="74" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A74" s="10">
+        <v>45313</v>
+      </c>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="17"/>
+    </row>
+    <row r="75" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A75" s="10">
+        <v>45314</v>
+      </c>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D75" s="17"/>
+    </row>
+    <row r="76" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A76" s="10">
+        <v>45315</v>
+      </c>
+      <c r="B76" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C76" s="16"/>
+      <c r="D76" s="17"/>
+    </row>
+    <row r="77" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A77" s="10">
+        <v>45316</v>
+      </c>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77" s="42"/>
+    </row>
+    <row r="78" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A78" s="10">
+        <v>45317</v>
+      </c>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78" s="17"/>
+    </row>
+    <row r="79" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A79" s="26">
+        <v>45318</v>
+      </c>
+      <c r="B79" s="43"/>
+      <c r="C79" s="43"/>
+      <c r="D79" s="44"/>
+    </row>
+    <row r="80" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A80" s="25">
+        <v>45319</v>
+      </c>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="17"/>
+    </row>
+    <row r="81" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A81" s="40">
+        <v>45320</v>
+      </c>
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="17"/>
+    </row>
+    <row r="82" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A82" s="40">
+        <v>45321</v>
+      </c>
+      <c r="B82" s="16"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="17"/>
+    </row>
+    <row r="83" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A83" s="40">
+        <v>45322</v>
+      </c>
+      <c r="B83" s="16"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="17"/>
+    </row>
+    <row r="84" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A84" s="45">
+        <v>45689</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+    </row>
+    <row r="85" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A85" s="45">
+        <v>45690</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+    </row>
+    <row r="86" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A86" s="45">
+        <v>45691</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+    </row>
+    <row r="87" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A87" s="45">
+        <v>45692</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+    </row>
+    <row r="88" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A88" s="46">
+        <v>45693</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+    </row>
+    <row r="89" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A89" s="46">
+        <v>45694</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+    </row>
+    <row r="90" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A90" s="46">
+        <v>45695</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+    </row>
+    <row r="91" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A91" s="46">
+        <v>45696</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+    </row>
+    <row r="92" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A92" s="46">
+        <v>45697</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+    </row>
+    <row r="93" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A93" s="46">
+        <v>45698</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A94" s="46">
+        <v>45699</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+    </row>
+    <row r="95" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A95" s="46">
+        <v>45700</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A96" s="46">
+        <v>45701</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+    </row>
+    <row r="97" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A97" s="46">
+        <v>45702</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+    </row>
+    <row r="98" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A98" s="46">
+        <v>45703</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D98" s="2"/>
+    </row>
+    <row r="99" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A99" s="46">
+        <v>45704</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A100" s="46">
+        <v>45705</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+    </row>
+    <row r="101" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A101" s="46">
+        <v>45706</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+    </row>
+    <row r="102" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A102" s="46">
+        <v>45707</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="D102" s="2"/>
+    </row>
+    <row r="103" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A103" s="46">
+        <v>45708</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" s="2"/>
+    </row>
+    <row r="104" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A104" s="46">
+        <v>45709</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D104" s="2"/>
+    </row>
+    <row r="105" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A105" s="46">
+        <v>45710</v>
+      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+    </row>
+    <row r="106" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A106" s="46">
+        <v>45711</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+    </row>
+    <row r="107" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A107" s="46">
+        <v>45712</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A108" s="46">
+        <v>45713</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+    </row>
+    <row r="109" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A109" s="46">
+        <v>45714</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D109" s="2"/>
+    </row>
+    <row r="110" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A110" s="46">
+        <v>45715</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+    </row>
+    <row r="111" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A111" s="46">
+        <v>45716</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
         <v>45717</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
+      <c r="B112" s="2"/>
+      <c r="C112" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D112" s="2"/>
+    </row>
+    <row r="113" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>45718</v>
+      </c>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D113" s="2"/>
+    </row>
+    <row r="114" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>45719</v>
+      </c>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>45720</v>
+      </c>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D115" s="2"/>
+    </row>
+    <row r="116" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>45721</v>
+      </c>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+    </row>
+    <row r="117" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>45722</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+    </row>
+    <row r="118" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>45723</v>
+      </c>
+      <c r="B118" s="2"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+    </row>
+    <row r="119" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>45724</v>
+      </c>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D119" s="2"/>
+    </row>
+    <row r="120" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>45725</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>45726</v>
+      </c>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+    </row>
+    <row r="122" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>45727</v>
+      </c>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+    </row>
+    <row r="123" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>45728</v>
+      </c>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D123" s="2"/>
+    </row>
+    <row r="124" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>45729</v>
+      </c>
+      <c r="B124" s="2"/>
+      <c r="C124" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D124" s="2"/>
+    </row>
+    <row r="125" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>45730</v>
+      </c>
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+    </row>
+    <row r="126" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>45731</v>
+      </c>
+      <c r="B126" s="2"/>
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2"/>
+    </row>
+    <row r="127" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>45732</v>
+      </c>
+      <c r="B127" s="2"/>
+      <c r="C127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D127" s="2"/>
+    </row>
+    <row r="128" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>45733</v>
+      </c>
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>45734</v>
+      </c>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>45735</v>
+      </c>
+      <c r="B130" s="2"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>45736</v>
+      </c>
+      <c r="B131" s="2"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>45737</v>
+      </c>
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+    </row>
+    <row r="133" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>45738</v>
+      </c>
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>45739</v>
+      </c>
+      <c r="B134" s="2"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <v>45740</v>
+      </c>
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="3"/>
+    </row>
+    <row r="136" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
+        <v>45741</v>
+      </c>
+      <c r="B136" s="2"/>
+      <c r="C136" s="4"/>
+      <c r="D136" s="5"/>
+    </row>
+    <row r="137" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
+        <v>45742</v>
+      </c>
+      <c r="B137" s="2"/>
+      <c r="C137" s="4"/>
+      <c r="D137" s="5"/>
+    </row>
+    <row r="138" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
+        <v>45743</v>
+      </c>
+      <c r="B138" s="2"/>
+      <c r="C138" s="4"/>
+      <c r="D138" s="5"/>
+    </row>
+    <row r="139" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
+        <v>45744</v>
+      </c>
+      <c r="B139" s="2"/>
+      <c r="C139" s="4"/>
+      <c r="D139" s="5"/>
+    </row>
+    <row r="140" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
+        <v>45745</v>
+      </c>
+      <c r="B140" s="2"/>
+      <c r="C140" s="4"/>
+      <c r="D140" s="5"/>
+    </row>
+    <row r="141" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
+        <v>45746</v>
+      </c>
+      <c r="B141" s="2"/>
+      <c r="C141" s="4"/>
+      <c r="D141" s="5"/>
+    </row>
+    <row r="142" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
+        <v>45747</v>
+      </c>
+      <c r="B142" s="2"/>
+      <c r="C142" s="4"/>
+      <c r="D142" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{788B1E88-10A8-4F13-AB22-E4793143661A}">
+  <dimension ref="A2:D143"/>
+  <sheetViews>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54:D58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.58203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="A3" s="7">
+        <v>45607</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>45608</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>45609</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>45610</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>45611</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>45612</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>45613</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="17"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>45614</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <v>45615</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
+        <v>45616</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="21"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
+        <v>45617</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
+        <v>45618</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
+        <v>45619</v>
+      </c>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
+        <v>45620</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
+        <v>45621</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="10">
+        <v>45622</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="10">
+        <v>45623</v>
+      </c>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="10">
+        <v>45624</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="10">
+        <v>45625</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="10">
+        <v>45626</v>
+      </c>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="10">
+        <v>45627</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="11">
+        <v>45628</v>
+      </c>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="12">
+        <v>45629</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="12">
+        <v>45630</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="21"/>
+    </row>
+    <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="12">
+        <v>45631</v>
+      </c>
+      <c r="B27" s="24"/>
+      <c r="C27" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="12">
+        <v>45632</v>
+      </c>
+      <c r="B28" s="24"/>
+      <c r="C28" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="12">
+        <v>45633</v>
+      </c>
+      <c r="B29" s="24"/>
+      <c r="C29" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="12">
+        <v>45634</v>
+      </c>
+      <c r="B30" s="24"/>
+      <c r="C30" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="9">
+        <v>45635</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="15"/>
+    </row>
+    <row r="32" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="10">
+        <v>45636</v>
+      </c>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="10">
+        <v>45637</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="10">
+        <v>45638</v>
+      </c>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="10">
+        <v>45639</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="10">
+        <v>45640</v>
+      </c>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A37" s="10">
+        <v>45641</v>
+      </c>
+      <c r="B37" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A38" s="9">
+        <v>45642</v>
+      </c>
+      <c r="B38" s="27"/>
+      <c r="C38" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A39" s="10">
+        <v>45643</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="10">
+        <v>45644</v>
+      </c>
+      <c r="B40" s="32"/>
+      <c r="C40" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A41" s="25">
+        <v>45645</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="24"/>
+      <c r="D41" s="31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A42" s="10">
+        <v>45646</v>
+      </c>
+      <c r="B42" s="30"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A43" s="10">
+        <v>45647</v>
+      </c>
+      <c r="B43" s="30"/>
+      <c r="C43" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="31"/>
+    </row>
+    <row r="44" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A44" s="10">
+        <v>45648</v>
+      </c>
+      <c r="B44" s="30"/>
+      <c r="C44" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="31"/>
+    </row>
+    <row r="45" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A45" s="26">
+        <v>45649</v>
+      </c>
+      <c r="B45" s="35"/>
+      <c r="C45" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="14"/>
+    </row>
+    <row r="46" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A46" s="10">
+        <v>45650</v>
+      </c>
+      <c r="B46" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A47" s="10">
+        <v>45651</v>
+      </c>
+      <c r="B47" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="16"/>
+    </row>
+    <row r="48" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A48" s="10">
+        <v>45652</v>
+      </c>
+      <c r="B48" s="36"/>
+      <c r="C48" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A49" s="10">
+        <v>45653</v>
+      </c>
+      <c r="B49" s="36"/>
+      <c r="C49" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" s="16"/>
+    </row>
+    <row r="50" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A50" s="10">
+        <v>45654</v>
+      </c>
+      <c r="B50" s="36"/>
+      <c r="C50" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="16"/>
+    </row>
+    <row r="51" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A51" s="10">
+        <v>45655</v>
+      </c>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+    </row>
+    <row r="52" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A52" s="26">
+        <v>45656</v>
+      </c>
+      <c r="B52" s="28"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="38"/>
+    </row>
+    <row r="53" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A53" s="10">
+        <v>45657</v>
+      </c>
+      <c r="B53" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D53" s="39" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A54" s="10">
+        <v>45658</v>
+      </c>
+      <c r="B54" s="24"/>
+      <c r="C54" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="38"/>
+    </row>
+    <row r="55" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A55" s="10">
+        <v>45659</v>
+      </c>
+      <c r="B55" s="24"/>
+      <c r="C55" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" s="38"/>
+    </row>
+    <row r="56" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A56" s="10">
+        <v>45660</v>
+      </c>
+      <c r="B56" s="24"/>
+      <c r="C56" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" s="38"/>
+    </row>
+    <row r="57" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A57" s="10">
+        <v>45661</v>
+      </c>
+      <c r="B57" s="24"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="38"/>
+    </row>
+    <row r="58" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A58" s="10">
+        <v>45662</v>
+      </c>
+      <c r="B58" s="24"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="38"/>
+    </row>
+    <row r="59" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A59" s="26">
+        <v>45297</v>
+      </c>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="15"/>
+    </row>
+    <row r="60" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A60" s="10">
+        <v>45298</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D60" s="17"/>
+    </row>
+    <row r="61" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A61" s="10">
+        <v>45299</v>
+      </c>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61" s="17"/>
+    </row>
+    <row r="62" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A62" s="10">
+        <v>45300</v>
+      </c>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D62" s="17"/>
+    </row>
+    <row r="63" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A63" s="10">
+        <v>45301</v>
+      </c>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D63" s="17"/>
+    </row>
+    <row r="64" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A64" s="10">
+        <v>45302</v>
+      </c>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A65" s="10">
+        <v>45303</v>
+      </c>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D65" s="17"/>
+    </row>
+    <row r="66" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A66" s="26">
+        <v>45304</v>
+      </c>
+      <c r="B66" s="28"/>
+      <c r="C66" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D66" s="41"/>
+    </row>
+    <row r="67" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A67" s="10">
+        <v>45305</v>
+      </c>
+      <c r="B67" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D67" s="38"/>
+    </row>
+    <row r="68" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A68" s="10">
+        <v>45306</v>
+      </c>
+      <c r="B68" s="24"/>
+      <c r="C68" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" s="38"/>
+    </row>
+    <row r="69" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A69" s="10">
+        <v>45307</v>
+      </c>
+      <c r="B69" s="24"/>
+      <c r="C69" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D69" s="38"/>
+    </row>
+    <row r="70" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A70" s="10">
+        <v>45308</v>
+      </c>
+      <c r="B70" s="24"/>
+      <c r="C70" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D70" s="38"/>
+    </row>
+    <row r="71" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A71" s="10">
+        <v>45309</v>
+      </c>
+      <c r="B71" s="24"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A72" s="12">
+        <v>45310</v>
+      </c>
+      <c r="B72" s="24"/>
+      <c r="C72" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D72" s="38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A73" s="9">
+        <v>45311</v>
+      </c>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A74" s="10">
+        <v>45312</v>
+      </c>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="17"/>
+    </row>
+    <row r="75" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A75" s="10">
+        <v>45313</v>
+      </c>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="17"/>
+    </row>
+    <row r="76" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A76" s="10">
+        <v>45314</v>
+      </c>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D76" s="17"/>
+    </row>
+    <row r="77" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A77" s="10">
+        <v>45315</v>
+      </c>
+      <c r="B77" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C77" s="16"/>
+      <c r="D77" s="17"/>
+    </row>
+    <row r="78" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A78" s="10">
+        <v>45316</v>
+      </c>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78" s="42"/>
+    </row>
+    <row r="79" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A79" s="10">
+        <v>45317</v>
+      </c>
+      <c r="B79" s="16"/>
+      <c r="C79" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79" s="17"/>
+    </row>
+    <row r="80" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A80" s="26">
+        <v>45318</v>
+      </c>
+      <c r="B80" s="43"/>
+      <c r="C80" s="43"/>
+      <c r="D80" s="44"/>
+    </row>
+    <row r="81" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A81" s="25">
+        <v>45319</v>
+      </c>
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="17"/>
+    </row>
+    <row r="82" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A82" s="40">
+        <v>45320</v>
+      </c>
+      <c r="B82" s="16"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="17"/>
+    </row>
+    <row r="83" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A83" s="40">
+        <v>45321</v>
+      </c>
+      <c r="B83" s="16"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="17"/>
+    </row>
+    <row r="84" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A84" s="40">
+        <v>45322</v>
+      </c>
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="17"/>
+    </row>
+    <row r="85" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A85" s="45">
+        <v>45689</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+    </row>
+    <row r="86" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A86" s="45">
+        <v>45690</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+    </row>
+    <row r="87" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A87" s="45">
+        <v>45691</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+    </row>
+    <row r="88" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A88" s="45">
+        <v>45692</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+    </row>
+    <row r="89" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A89" s="46">
+        <v>45693</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+    </row>
+    <row r="90" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A90" s="46">
+        <v>45694</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+    </row>
+    <row r="91" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A91" s="46">
+        <v>45695</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+    </row>
+    <row r="92" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A92" s="46">
+        <v>45696</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+    </row>
+    <row r="93" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A93" s="46">
+        <v>45697</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+    </row>
+    <row r="94" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A94" s="46">
+        <v>45698</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A95" s="46">
+        <v>45699</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D95" s="2"/>
+    </row>
+    <row r="96" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A96" s="46">
+        <v>45700</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A97" s="46">
+        <v>45701</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+    </row>
+    <row r="98" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A98" s="46">
+        <v>45702</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+    </row>
+    <row r="99" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A99" s="46">
+        <v>45703</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D99" s="2"/>
+    </row>
+    <row r="100" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A100" s="46">
+        <v>45704</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A101" s="46">
+        <v>45705</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+    </row>
+    <row r="102" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A102" s="46">
+        <v>45706</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D102" s="2"/>
+    </row>
+    <row r="103" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A103" s="46">
+        <v>45707</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="D103" s="2"/>
+    </row>
+    <row r="104" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A104" s="46">
+        <v>45708</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" s="2"/>
+    </row>
+    <row r="105" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A105" s="46">
+        <v>45709</v>
+      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D105" s="2"/>
+    </row>
+    <row r="106" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A106" s="46">
+        <v>45710</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+    </row>
+    <row r="107" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A107" s="46">
+        <v>45711</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+    </row>
+    <row r="108" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A108" s="46">
+        <v>45712</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A109" s="46">
+        <v>45713</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D109" s="2"/>
+    </row>
+    <row r="110" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A110" s="46">
+        <v>45714</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D110" s="2"/>
+    </row>
+    <row r="111" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A111" s="46">
+        <v>45715</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+    </row>
+    <row r="112" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A112" s="46">
+        <v>45716</v>
+      </c>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>45717</v>
+      </c>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D113" s="2"/>
+    </row>
+    <row r="114" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
         <v>45718</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+      <c r="B114" s="2"/>
+      <c r="C114" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="D114" s="2"/>
+    </row>
+    <row r="115" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
         <v>45719</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
+      <c r="B115" s="2"/>
+      <c r="C115" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D115" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+    <row r="116" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
         <v>45720</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
+      <c r="B116" s="2"/>
+      <c r="C116" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="D116" s="2"/>
+    </row>
+    <row r="117" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
         <v>45721</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+    </row>
+    <row r="118" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
         <v>45722</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B118" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+    </row>
+    <row r="119" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
         <v>45723</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+    </row>
+    <row r="120" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
         <v>45724</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2" t="s">
+      <c r="B120" s="2"/>
+      <c r="C120" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="D120" s="2"/>
+    </row>
+    <row r="121" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
         <v>45725</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B121" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
+      <c r="C121" s="2"/>
+      <c r="D121" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+    <row r="122" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
         <v>45726</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+    </row>
+    <row r="123" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
         <v>45727</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+    </row>
+    <row r="124" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
         <v>45728</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2" t="s">
+      <c r="B124" s="2"/>
+      <c r="C124" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="D124" s="2"/>
+    </row>
+    <row r="125" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
         <v>45729</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2" t="s">
+      <c r="B125" s="2"/>
+      <c r="C125" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="D125" s="2"/>
+    </row>
+    <row r="126" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
         <v>45730</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+      <c r="B126" s="2"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
+    </row>
+    <row r="127" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
         <v>45731</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
+      <c r="B127" s="2"/>
+      <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+      <c r="D127" s="2"/>
+    </row>
+    <row r="128" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
         <v>45732</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2" t="s">
+      <c r="B128" s="2"/>
+      <c r="C128" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+      <c r="D128" s="2"/>
+    </row>
+    <row r="129" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
         <v>45733</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2" t="s">
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+    <row r="130" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
         <v>45734</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2" t="s">
+      <c r="B130" s="2"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+    <row r="131" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
         <v>45735</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2" t="s">
+      <c r="B131" s="2"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+    <row r="132" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
         <v>45736</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2" t="s">
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+    <row r="133" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
         <v>45737</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+    </row>
+    <row r="134" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
         <v>45738</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2" t="s">
+      <c r="B134" s="2"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+    <row r="135" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
         <v>45739</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2" t="s">
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+    <row r="136" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
         <v>45740</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+    </row>
+    <row r="137" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
         <v>45741</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="5"/>
-    </row>
-    <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+    </row>
+    <row r="138" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
         <v>45742</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="5"/>
-    </row>
-    <row r="28" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+    </row>
+    <row r="139" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
         <v>45743</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="5"/>
-    </row>
-    <row r="29" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+    </row>
+    <row r="140" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
         <v>45744</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
+    </row>
+    <row r="141" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
         <v>45745</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="5"/>
-    </row>
-    <row r="31" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+    </row>
+    <row r="142" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
         <v>45746</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="5"/>
-    </row>
-    <row r="32" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
+    </row>
+    <row r="143" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
         <v>45747</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
